--- a/trace_reader/SampleData.xlsx
+++ b/trace_reader/SampleData.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Desktop\website\trace_reader\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Desktop\Project\website\trace_reader\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5664"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5664" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rank" sheetId="1" r:id="rId1"/>
     <sheet name="Hospital" sheetId="2" r:id="rId2"/>
     <sheet name="Disease" sheetId="3" r:id="rId3"/>
+    <sheet name="Disease_E" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="96">
   <si>
     <t>Hospital</t>
   </si>
@@ -214,12 +215,108 @@
   <si>
     <t>http://www.massgeneral.org/</t>
   </si>
+  <si>
+    <t>妇产科疾病</t>
+  </si>
+  <si>
+    <t>糖尿病&amp;内分泌疾病</t>
+  </si>
+  <si>
+    <t>神经系统疾病&amp;神经外科疾病</t>
+  </si>
+  <si>
+    <t>消化疾病&amp;普外科疾病（胃肠外科疾病）</t>
+  </si>
+  <si>
+    <t>泌尿疾病</t>
+  </si>
+  <si>
+    <t>老年疾病</t>
+  </si>
+  <si>
+    <t>循环疾病&amp;心脏外科疾病</t>
+  </si>
+  <si>
+    <t>肾脏疾病</t>
+  </si>
+  <si>
+    <t>呼吸疾病</t>
+  </si>
+  <si>
+    <t>耳鼻咽喉疾病</t>
+  </si>
+  <si>
+    <t>整形</t>
+  </si>
+  <si>
+    <t>肿瘤</t>
+  </si>
+  <si>
+    <t>风湿疾病</t>
+  </si>
+  <si>
+    <t>疾病康复（康复医学？）</t>
+  </si>
+  <si>
+    <t>精神疾病</t>
+  </si>
+  <si>
+    <t>眼科疾病</t>
+  </si>
+  <si>
+    <t>子宫，卵巢，阴道，输卵管，附件，盆腔，妊娠，月经，白带</t>
+  </si>
+  <si>
+    <t>甲状腺，下丘脑，垂体，肾上腺，血糖，肥胖</t>
+  </si>
+  <si>
+    <t>脊髓，头痛，脑，癫痫，帕金森，肌肉，瘫痪，痴呆</t>
+  </si>
+  <si>
+    <t>肝，胆，胰，脾，阑尾，胃，食管，肠，肛门，十二指肠，小肠，结肠，直肠</t>
+  </si>
+  <si>
+    <t>肾，膀胱，肾盂，输尿管，结石，睾丸，精索，前列腺，尿道</t>
+  </si>
+  <si>
+    <t>血压，血糖，血脂，骨质疏松，尿失禁</t>
+  </si>
+  <si>
+    <t>心，瓣膜，血管，血栓，搭桥，支架，冠脉，心梗，心肌缺血</t>
+  </si>
+  <si>
+    <t>肾，尿道，尿路，输尿管，尿毒症，肾小球</t>
+  </si>
+  <si>
+    <t>肺，支气管，胸腔，哮喘，呼吸，胸膜</t>
+  </si>
+  <si>
+    <t>耳，鼻，咽喉，声带，嗓子，扁桃体</t>
+  </si>
+  <si>
+    <t>骨，颈椎，关节，隆胸，整形，再造</t>
+  </si>
+  <si>
+    <t>癌，瘤，肉瘤，增生，肿块</t>
+  </si>
+  <si>
+    <t>狼疮，风湿，尿酸，肌痛，结节</t>
+  </si>
+  <si>
+    <t>中风，卒中，复健，运动</t>
+  </si>
+  <si>
+    <t>焦虑，抑郁，精神，心境，应激，躁狂</t>
+  </si>
+  <si>
+    <t>眼，视，白内障，晶状体，角膜，眼睑，结膜，虹膜</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -249,6 +346,15 @@
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="SimSun"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="SimSun"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -270,7 +376,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -291,11 +397,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -308,6 +429,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -337,7 +460,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -649,10 +772,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6946,7 +7069,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
@@ -16057,19 +16180,21 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1"/>
-    <hyperlink ref="J3" r:id="rId2"/>
-    <hyperlink ref="J4" r:id="rId3"/>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="J3" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="J4" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -16087,131 +16212,131 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>15</v>
+      <c r="A2" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>25</v>
+      <c r="A3" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>28</v>
+      <c r="A4" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>29</v>
+      <c r="A5" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>31</v>
+      <c r="A6" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>40</v>
+      <c r="A7" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>41</v>
+      <c r="A8" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>42</v>
+      <c r="A9" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>43</v>
+      <c r="A10" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>44</v>
+      <c r="A11" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>33</v>
+      <c r="A12" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>46</v>
+      <c r="A13" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>35</v>
+      <c r="A14" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>36</v>
+      <c r="A15" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>38</v>
+      <c r="A16" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>48</v>
+      <c r="A17" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -20145,6 +20270,161 @@
     <row r="1000" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1000" s="2"/>
       <c r="B1000" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF3F119A-B24A-4680-9486-520450497936}">
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.33203125" customWidth="1"/>
+    <col min="2" max="2" width="28.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
